--- a/docs/SCRUM/SprintBacklog.xlsx
+++ b/docs/SCRUM/SprintBacklog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B643B-CDF2-4D6B-9152-597D108C4DE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{995B643B-CDF2-4D6B-9152-597D108C4DE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{76978926-3594-4EEE-AD0A-1A24E2939D38}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Iteration" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Kategori</t>
   </si>
@@ -61,15 +61,9 @@
     <t xml:space="preserve">Ret diagrammer og tabel ud fra Seplanlægning </t>
   </si>
   <si>
-    <t>Udarbejdelse af et sekvensdiagram</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Kode Login og Seplanlægning</t>
-  </si>
-  <si>
     <t>Implementering</t>
   </si>
   <si>
@@ -98,6 +92,21 @@
   </si>
   <si>
     <t>Begyndt</t>
+  </si>
+  <si>
+    <t>Kode Login</t>
+  </si>
+  <si>
+    <t>Kode sePlanlægning</t>
+  </si>
+  <si>
+    <t>Kode aktivitet</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -483,7 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -653,13 +661,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>129231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -701,13 +709,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>129231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1011,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1137,7 +1145,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7"/>
@@ -1165,7 +1173,7 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1197,7 @@
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1213,7 +1221,7 @@
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1245,7 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="7"/>
       <c r="C7" s="11"/>
       <c r="D7" s="5"/>
@@ -1259,7 +1267,7 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="7"/>
       <c r="C8" s="11"/>
       <c r="D8" s="5"/>
@@ -1281,7 +1289,7 @@
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="5"/>
@@ -1303,7 +1311,7 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5"/>
@@ -1325,14 +1333,14 @@
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4">
@@ -1344,7 +1352,9 @@
       <c r="G11" s="6">
         <v>0</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1359,14 +1369,14 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4">
@@ -1378,7 +1388,9 @@
       <c r="G12" s="6">
         <v>0</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1393,14 +1405,14 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4">
@@ -1412,7 +1424,9 @@
       <c r="G13" s="6">
         <v>10</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>7</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1427,14 +1441,14 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4">
@@ -1446,7 +1460,9 @@
       <c r="G14" s="4">
         <v>10</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1461,26 +1477,28 @@
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
-        <v>13</v>
+      <c r="A15" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6">
-        <v>10</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1495,14 +1513,14 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
-        <v>17</v>
+      <c r="A16" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="4">
@@ -1514,7 +1532,9 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1528,15 +1548,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>18</v>
+    <row r="17" spans="1:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4">
@@ -1548,7 +1568,9 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1562,27 +1584,29 @@
       <c r="S17" s="4"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>19</v>
+    <row r="18" spans="1:20" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="4"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1597,26 +1621,28 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
-        <v>20</v>
+      <c r="A19" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="4">
         <v>10</v>
       </c>
       <c r="F19" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1630,27 +1656,29 @@
       <c r="S19" s="4"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>21</v>
+    <row r="20" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="4">
         <v>10</v>
       </c>
       <c r="F20" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1665,26 +1693,14 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="30"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1699,7 +1715,7 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="7"/>
       <c r="C22" s="11"/>
       <c r="D22" s="5"/>
@@ -1721,13 +1737,13 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="7"/>
       <c r="C23" s="11"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1743,14 +1759,14 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -1765,8 +1781,10 @@
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
@@ -1787,7 +1805,7 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1814,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1811,7 +1829,7 @@
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
@@ -1835,15 +1853,15 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1859,7 +1877,7 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
@@ -1883,15 +1901,15 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -1907,10 +1925,8 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A31" s="30"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="11"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
@@ -1931,14 +1947,28 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="E32" s="4">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6">
+        <v>9</v>
+      </c>
+      <c r="H32" s="4">
+        <v>8</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -1953,14 +1983,14 @@
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31" t="s">
-        <v>15</v>
+      <c r="A33" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="4">
@@ -1970,9 +2000,11 @@
         <v>10</v>
       </c>
       <c r="G33" s="6">
-        <v>8</v>
-      </c>
-      <c r="H33" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H33" s="4">
+        <v>7</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1987,14 +2019,28 @@
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="4"/>
+      <c r="E34" s="4">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6">
+        <v>10</v>
+      </c>
+      <c r="G34" s="6">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -2009,13 +2055,13 @@
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="7"/>
       <c r="C35" s="11"/>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2031,7 +2077,7 @@
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="7"/>
       <c r="C36" s="11"/>
       <c r="D36" s="5"/>
@@ -2053,13 +2099,13 @@
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="7"/>
       <c r="C37" s="11"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2075,7 +2121,7 @@
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="7"/>
       <c r="C38" s="11"/>
       <c r="D38" s="5"/>
@@ -2097,14 +2143,14 @@
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="7"/>
       <c r="C39" s="11"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -2119,7 +2165,7 @@
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="7"/>
       <c r="C40" s="11"/>
       <c r="D40" s="5"/>
@@ -2141,14 +2187,14 @@
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="7"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="4"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2163,7 +2209,7 @@
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="7"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2185,13 +2231,13 @@
       <c r="T42" s="27"/>
     </row>
     <row r="43" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="7"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="6"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -2207,11 +2253,11 @@
       <c r="T43" s="27"/>
     </row>
     <row r="44" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="7"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="22"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="6"/>
@@ -2229,14 +2275,13 @@
       <c r="T44" s="27"/>
     </row>
     <row r="45" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -2251,14 +2296,7 @@
       <c r="T45" s="27"/>
     </row>
     <row r="46" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="29"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
@@ -2272,9 +2310,6 @@
       <c r="S46" s="25"/>
       <c r="T46" s="28"/>
     </row>
-    <row r="47" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H47" s="20"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/SCRUM/SprintBacklog.xlsx
+++ b/docs/SCRUM/SprintBacklog.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{995B643B-CDF2-4D6B-9152-597D108C4DE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{76978926-3594-4EEE-AD0A-1A24E2939D38}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{995B643B-CDF2-4D6B-9152-597D108C4DE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4385BE4A-F180-4985-9540-C10E5FEA1D0C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Kategori</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>Kode aktivitet</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1349,9 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1391,7 +1387,9 @@
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1427,7 +1425,9 @@
       <c r="H13" s="4">
         <v>7</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>7</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1463,7 +1463,9 @@
       <c r="H14" s="4">
         <v>10</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1499,7 +1501,9 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1535,7 +1539,9 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="6"/>
@@ -1571,7 +1577,9 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1607,7 +1615,9 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1643,7 +1653,9 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
@@ -1676,10 +1688,12 @@
       <c r="G20" s="6">
         <v>10</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1969,7 +1983,9 @@
       <c r="H32" s="4">
         <v>8</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>8</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2005,7 +2021,9 @@
       <c r="H33" s="4">
         <v>7</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="6">
+        <v>4</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -2038,10 +2056,12 @@
       <c r="G34" s="6">
         <v>10</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="6"/>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>

--- a/docs/SCRUM/SprintBacklog.xlsx
+++ b/docs/SCRUM/SprintBacklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{995B643B-CDF2-4D6B-9152-597D108C4DE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4385BE4A-F180-4985-9540-C10E5FEA1D0C}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{995B643B-CDF2-4D6B-9152-597D108C4DE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{162E3CE3-FE77-46CE-B620-7903EB39E5F6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1352,7 +1352,9 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1390,7 +1392,9 @@
       <c r="I12" s="6">
         <v>0</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1410,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4">
@@ -1428,7 +1432,9 @@
       <c r="I13" s="6">
         <v>7</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6">
+        <v>7</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1466,7 +1472,9 @@
       <c r="I14" s="6">
         <v>10</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6">
+        <v>10</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1504,7 +1512,9 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1542,7 +1552,9 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1580,7 +1592,9 @@
       <c r="I17" s="6">
         <v>0</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1618,7 +1632,9 @@
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -1656,7 +1672,9 @@
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1694,7 +1712,9 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1986,7 +2006,9 @@
       <c r="I32" s="6">
         <v>8</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="6">
+        <v>4</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -2024,7 +2046,9 @@
       <c r="I33" s="6">
         <v>4</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6">
+        <v>5</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -2062,7 +2086,9 @@
       <c r="I34" s="6">
         <v>0</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
